--- a/setting.xlsx
+++ b/setting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6187E2-B355-4D4D-82A2-05587448EB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8C6BC-1880-4778-83BD-5EC0C69145D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共通設定" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -36,13 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PDFファイル名</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シート名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -70,32 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行開始番号</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行終了番号</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PDF_INPUT_FILENAME</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,24 +72,6 @@
   </si>
   <si>
     <t>EXCEL_INPUT_SHEETNAME1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セル列番号</t>
-    <rPh sb="2" eb="3">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>START_ROW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>END_ROW</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -175,14 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pdf_in/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pdf_out/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PDF_TMP_FILENAME1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,40 +140,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tmp/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tmp1.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>excel/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TMP_DIR_PATH</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EXCEL_TMP_FILENAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PDFの格納パス</t>
-    <rPh sb="4" eb="6">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マージしたPDFの出力先パス</t>
-    <rPh sb="9" eb="11">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -276,19 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業用のファイルの格納パス</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業用のExcelファイル名</t>
     <rPh sb="0" eb="3">
       <t>サギョウヨウ</t>
@@ -299,18 +202,183 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EXCELの格納パス</t>
+    <t>PDF_MERGE_FILENAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地点番号→需要者名A4.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地点番号</t>
+    <rPh sb="0" eb="2">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdf_out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdf_in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←変更不可行</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンコウフカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載日時追加用のPDFの格納パス
+(exeからの相対パスで記載)</t>
+    <rPh sb="0" eb="4">
+      <t>ケイサイニチジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージしたPDFの出力先パス
+(exeからの相対パスで記載)</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用のファイルの格納パス
+(exeからの相対パスで記載)</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXCELの格納パス
+(exeからの相対パスで記載)</t>
     <rPh sb="6" eb="8">
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>←データは4行目以降に記載する</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←データは3行目に記載する</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「日程等別料金」等の契約・実績明細表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京.pdf</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/1/7 13:52:11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「日程等別料金」等計算書_*_LVZZ_0001.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>COL_NUM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PDF_MERGE_FILENAME</t>
+    <t>託送料金等請求書_*_42783.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列番号</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDFファイル名
+（※ワイルドカードは*で指定可能）</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -318,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +404,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -457,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,6 +544,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,85 +908,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03529B8C-68EB-4473-9216-C66BC195817A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="28.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="3" customWidth="1"/>
     <col min="3" max="4" width="34.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" style="3" customWidth="1"/>
     <col min="8" max="9" width="31.109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="1.5546875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
+    <row r="1" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>193</v>
@@ -910,19 +1001,23 @@
         <v>390</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -937,112 +1032,123 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="28.77734375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="31.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="31.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="35.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
-        <v>17</v>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
@@ -1053,8 +1159,6 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
@@ -1065,8 +1169,6 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
@@ -1077,8 +1179,6 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
@@ -1089,8 +1189,6 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
@@ -1101,8 +1199,6 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
@@ -1113,8 +1209,6 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
@@ -1125,8 +1219,6 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
@@ -1137,8 +1229,6 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
@@ -1149,8 +1239,6 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
@@ -1161,8 +1249,6 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
@@ -1173,8 +1259,6 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
@@ -1185,10 +1269,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1197,10 +1279,8 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1209,10 +1289,8 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="6"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1221,10 +1299,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1233,10 +1309,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="6"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1245,16 +1319,14 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
